--- a/docs/Classification Reports/logregression.xlsx
+++ b/docs/Classification Reports/logregression.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5444444444444444</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7302631578947368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5868263473053892</v>
+        <v>0.68944099378882</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8116883116883117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7961783439490446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8038585209003215</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>0.9022556390977443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7325581395348837</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8664259927797833</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5734265734265734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5578231292517006</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6091370558375635</v>
+        <v>0.5655172413793103</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.73</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.73</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.73</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7108726373432256</v>
+        <v>0.7350779251708044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6924328731244276</v>
+        <v>0.7293994911072039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6982823487614467</v>
+        <v>0.7313106872120587</v>
       </c>
       <c r="E7" t="n">
-        <v>336</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7096661262102438</v>
+        <v>0.7348344034706263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.73</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6967087347531042</v>
+        <v>0.7314953271338308</v>
       </c>
       <c r="E8" t="n">
-        <v>336</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Classification Reports/logregression.xlsx
+++ b/docs/Classification Reports/logregression.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6529411764705882</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7302631578947368</v>
+        <v>0.7793103448275862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68944099378882</v>
+        <v>0.6550724637681159</v>
       </c>
       <c r="E2" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8116883116883117</v>
+        <v>0.8175182481751825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7961783439490446</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8038585209003215</v>
+        <v>0.7859649122807018</v>
       </c>
       <c r="E3" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9022556390977443</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7549668874172185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8664259927797833</v>
+        <v>0.829090909090909</v>
       </c>
       <c r="E4" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5734265734265734</v>
+        <v>0.6258992805755396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5578231292517006</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5655172413793103</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="C6" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="D6" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E6" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7350779251708044</v>
+        <v>0.7319430918650999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7293994911072039</v>
+        <v>0.7121815741734674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7313106872120587</v>
+        <v>0.7149896984035757</v>
       </c>
       <c r="E7" t="n">
         <v>600</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7348344034706263</v>
+        <v>0.7323009485747873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7314953271338308</v>
+        <v>0.7141910014311363</v>
       </c>
       <c r="E8" t="n">
         <v>600</v>
